--- a/plots.xlsx
+++ b/plots.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amos Ng\Dropbox\Spring 2014\10-708\final project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Documents\GitHub\Weather-Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -358,11 +358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410863112"/>
-        <c:axId val="410857624"/>
+        <c:axId val="186442264"/>
+        <c:axId val="186442656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410863112"/>
+        <c:axId val="186442264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,12 +475,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410857624"/>
+        <c:crossAx val="186442656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410857624"/>
+        <c:axId val="186442656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +598,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410863112"/>
+        <c:crossAx val="186442264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,11 +886,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="419004472"/>
-        <c:axId val="419007216"/>
+        <c:axId val="186443440"/>
+        <c:axId val="186443832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="419004472"/>
+        <c:axId val="186443440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,12 +947,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419007216"/>
+        <c:crossAx val="186443832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="419007216"/>
+        <c:axId val="186443832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,7 +1009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419004472"/>
+        <c:crossAx val="186443440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1297,11 +1297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325888296"/>
-        <c:axId val="325897312"/>
+        <c:axId val="186444616"/>
+        <c:axId val="186445008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325888296"/>
+        <c:axId val="186444616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,12 +1358,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325897312"/>
+        <c:crossAx val="186445008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325897312"/>
+        <c:axId val="186445008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1420,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325888296"/>
+        <c:crossAx val="186444616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1713,11 +1713,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325894960"/>
-        <c:axId val="325897704"/>
+        <c:axId val="186445792"/>
+        <c:axId val="186446184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325894960"/>
+        <c:axId val="186445792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,12 +1774,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325897704"/>
+        <c:crossAx val="186446184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325897704"/>
+        <c:axId val="186446184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,7 +1836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325894960"/>
+        <c:crossAx val="186445792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2128,11 +2128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410855272"/>
-        <c:axId val="410866640"/>
+        <c:axId val="186446968"/>
+        <c:axId val="186447360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410855272"/>
+        <c:axId val="186446968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2189,12 +2189,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410866640"/>
+        <c:crossAx val="186447360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410866640"/>
+        <c:axId val="186447360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,7 +2251,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410855272"/>
+        <c:crossAx val="186446968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2539,11 +2539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325898488"/>
-        <c:axId val="325888688"/>
+        <c:axId val="186448144"/>
+        <c:axId val="186448536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325898488"/>
+        <c:axId val="186448144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2600,12 +2600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325888688"/>
+        <c:crossAx val="186448536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325888688"/>
+        <c:axId val="186448536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2662,7 +2662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325898488"/>
+        <c:crossAx val="186448144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2955,11 +2955,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="420586776"/>
-        <c:axId val="420580504"/>
+        <c:axId val="188157672"/>
+        <c:axId val="188158064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="420586776"/>
+        <c:axId val="188157672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,12 +3016,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420580504"/>
+        <c:crossAx val="188158064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="420580504"/>
+        <c:axId val="188158064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3078,7 +3078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="420586776"/>
+        <c:crossAx val="188157672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3371,11 +3371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="410859192"/>
-        <c:axId val="410868600"/>
+        <c:axId val="188158848"/>
+        <c:axId val="188159240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="410859192"/>
+        <c:axId val="188158848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,12 +3432,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410868600"/>
+        <c:crossAx val="188159240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="410868600"/>
+        <c:axId val="188159240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3494,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410859192"/>
+        <c:crossAx val="188158848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3531,6 +3531,926 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.30846456692913388"/>
+                  <c:y val="7.213648293963254E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.86869359999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20460701000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73851109999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25814343000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19026691000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25146986999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4267842999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15926754000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3701408000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19594602999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98724369999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2204614</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99963489999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30153229999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31606610000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99996439999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9925110000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99999360000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.63229199999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87779160000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.98925129999999994</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.89857070000000006</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.99998819999999999</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.88314000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.91434629999999995</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>1.0000230000000001</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.98325580000000001</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.99998279999999995</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.69872829999999997</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.89507599999999998</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.92436410000000002</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.80584239999999996</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.89406249999999998</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.6082552</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.42093320000000001</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.32486730000000003</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.9410828</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.47364689999999998</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.46566540000000001</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.78729830000000001</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.98896300000000004</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.22019643</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>0.99998779999999998</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.30091240000000002</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.31646200000000002</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>1.00014</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>8.7611154999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.99990769999999995</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>0.62894939999999999</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>0.88035810000000003</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>0.83552459999999995</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>0.2058605</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>0.71625779999999994</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>0.25952849</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>0.19101329</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>0.25401321999999998</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>8.2789330999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>0.15984372999999999</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>8.5673339000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>0.19788606</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>0.98847739999999995</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>0.15776834000000001</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>0.99993500000000002</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>0.2969868</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>0.18060177999999999</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>0.99987289999999995</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>6.6487291000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>1.0000119999999999</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>0.61673310000000003</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>0.88055890000000003</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>0.83595629999999999</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0.15016183</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>0.70897889999999997</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>0.24518403</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>0.16140595999999999</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>0.21647859999999999</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>6.2388169E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>0.15582282</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>7.1088403999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>0.19124864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$81</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>0.84963509814508009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20316434234382766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73321006539735933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25746974579550119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18966589044949544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25042427997300903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3989011185987894E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15887960850908464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.3478871578382033E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19530944677613521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99996709945877715</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22950904121624491</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45219907120647651</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.32895592409926289</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.554000209336401E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.90910934435853208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99607017825050859</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99997499968749215</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90711702662886884</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91245465640764856</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.93690415731813259</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98494182569327415</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.92738460198560557</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99648948815328708</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.92420922955789619</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.80542181495164389</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.89306214789341509</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.60809119381882193</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.42081634949226959</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32479886083544074</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.94066354239972538</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.47361271097807334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.46574316956880857</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.78692807803508957</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9999749496862409</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.22974516316997839</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45123951511364779</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.32927040559394344</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.3074131744540059E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.90843491786698738</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99600311244493611</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.83247288244122397</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.20511506526825377</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.71459142172293111</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.25891936968871215</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.19057324051398192</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.25422755554817422</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8.2732309287242789E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.16089021101359771</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.6292050618814245E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.19767361988894724</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9999748996849871</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.17658909932382577</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.44986831406534955</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.20214952386785381</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.632042321685592E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.90753402140085082</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99599106421694372</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.8306031543402661</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.14917325497554848</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7070842948333671</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.24456424513816405</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.16092262115687775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.21679462631716681</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.2274914692835991E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.15669441598219128</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.1724312474920254E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.19081747823509251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="213949880"/>
+        <c:axId val="213950272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="213949880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RMSE/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>prior</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213950272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="213950272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>posterior</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR"/>
+                  <a:t>σ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="-25000"/>
+                  <a:t>prior</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.684717208182912E-2"/>
+              <c:y val="0.3171829467262538"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="213949880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3863,6 +4783,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7476,6 +8436,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8233,6 +9709,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8501,8 +10009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
